--- a/autoepd/tests/result.xlsx
+++ b/autoepd/tests/result.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="600×600抛光砖" sheetId="1" r:id="rId1"/>
-    <sheet name="800×800抛光砖" sheetId="2" r:id="rId2"/>
-    <sheet name="800×800干法原石" sheetId="3" r:id="rId3"/>
-    <sheet name="800×800湿法原石" sheetId="4" r:id="rId4"/>
-    <sheet name="900x900干法原石" sheetId="5" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="600×600抛光砖" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="800×800抛光砖" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="800×800干法原石" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="800×800湿法原石" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="900x900干法原石" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>原材料采集阶段_资源</t>
   </si>
@@ -54,26 +55,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,35 +85,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -404,12 +392,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -429,16 +423,16 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.4741122242282463</v>
-      </c>
-      <c r="C2">
-        <v>5.773326546068669</v>
-      </c>
-      <c r="D2">
-        <v>20.86512477917923</v>
-      </c>
-      <c r="E2">
+      <c r="B2" t="n">
+        <v>0.4741122242282465</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.773326546068668</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.8651247791792</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.904995435883758</v>
       </c>
     </row>
@@ -446,99 +440,105 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>9.603722645811915e-05</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>9.603722645811913e-05</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.0007606812897705291</v>
       </c>
-      <c r="D3">
-        <v>0.0003505051224792496</v>
-      </c>
-      <c r="E3">
-        <v>0.00146730790321012</v>
+      <c r="D3" t="n">
+        <v>0.0003505051224792504</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001467307903210119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.009813855066608937</v>
-      </c>
-      <c r="C4">
-        <v>0.03749382081705368</v>
-      </c>
-      <c r="D4">
-        <v>0.01589307741970539</v>
-      </c>
-      <c r="E4">
-        <v>0.03889091028274801</v>
+      <c r="B4" t="n">
+        <v>0.009813855066608939</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03749382081705366</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01589307741970541</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.038890910282748</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.0004366912225884634</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.001942104653068954</v>
       </c>
-      <c r="D5">
-        <v>0.001780967763090774</v>
-      </c>
-      <c r="E5">
-        <v>0.006987180491476761</v>
+      <c r="D5" t="n">
+        <v>0.001780967763090777</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.006987180491476759</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>3.153485457395645e-05</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>3.15348545739564e-05</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.187709813921481e-05</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>1.204905142740342e-05</v>
       </c>
-      <c r="E6">
-        <v>6.525762911850937e-06</v>
+      <c r="E6" t="n">
+        <v>6.525762911850935e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>2.702778663091554</v>
-      </c>
-      <c r="C7">
-        <v>38.79475155190555</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="n">
+        <v>2.702778663091556</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38.79475155190557</v>
+      </c>
+      <c r="D7" t="n">
         <v>14.50679957055431</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>11.00810511393037</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -558,116 +558,122 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.4656432973764045</v>
-      </c>
-      <c r="C2">
-        <v>5.773326546068671</v>
-      </c>
-      <c r="D2">
-        <v>20.86512477917924</v>
-      </c>
-      <c r="E2">
-        <v>1.904995435883759</v>
+      <c r="B2" t="n">
+        <v>0.465643297376405</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.773326546068668</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.8651247791792</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.904995435883758</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>9.489332810853406e-05</v>
-      </c>
-      <c r="C3">
-        <v>0.0007606812897705294</v>
-      </c>
-      <c r="D3">
-        <v>0.0003505051224792497</v>
-      </c>
-      <c r="E3">
-        <v>0.00146730790321012</v>
+      <c r="B3" t="n">
+        <v>9.489332810853404e-05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0007606812897705292</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0003505051224792504</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001467307903210119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.009661260670135272</v>
-      </c>
-      <c r="C4">
-        <v>0.03749382081705369</v>
-      </c>
-      <c r="D4">
-        <v>0.01589307741970539</v>
-      </c>
-      <c r="E4">
-        <v>0.03889091028274803</v>
+      <c r="B4" t="n">
+        <v>0.009661260670135275</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03749382081705366</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01589307741970541</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.038890910282748</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.000431452569064561</v>
       </c>
-      <c r="C5">
-        <v>0.001942104653068955</v>
-      </c>
-      <c r="D5">
-        <v>0.001780967763090774</v>
-      </c>
-      <c r="E5">
-        <v>0.006987180491476763</v>
+      <c r="C5" t="n">
+        <v>0.001942104653068954</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.001780967763090777</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.006987180491476759</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>3.087799647856728e-05</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>1.187709813921481e-05</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>1.204905142740342e-05</v>
       </c>
-      <c r="E6">
-        <v>6.525762911850939e-06</v>
+      <c r="E6" t="n">
+        <v>6.525762911850935e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>2.650044489076007</v>
-      </c>
-      <c r="C7">
-        <v>38.79475155190556</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="n">
+        <v>2.650044489076009</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38.79475155190557</v>
+      </c>
+      <c r="D7" t="n">
         <v>14.50679957055431</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>11.00810511393037</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -687,16 +693,16 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>3.086743199183647</v>
-      </c>
-      <c r="C2">
-        <v>6.892404014699946</v>
-      </c>
-      <c r="D2">
-        <v>24.90953329032773</v>
-      </c>
-      <c r="E2">
+      <c r="B2" t="n">
+        <v>3.086743199183653</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.892404014699949</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.90953329032777</v>
+      </c>
+      <c r="E2" t="n">
         <v>2.2742517828324</v>
       </c>
     </row>
@@ -704,16 +710,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.0006420157123480455</v>
-      </c>
-      <c r="C3">
-        <v>0.0009081285691507752</v>
-      </c>
-      <c r="D3">
-        <v>0.000418445569304221</v>
-      </c>
-      <c r="E3">
+      <c r="B3" t="n">
+        <v>0.0006420157123480463</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0009081285691507756</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0004184455693042201</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.00175172472961416</v>
       </c>
     </row>
@@ -721,33 +727,33 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.06489317477177541</v>
-      </c>
-      <c r="C4">
-        <v>0.04476146621255528</v>
-      </c>
-      <c r="D4">
-        <v>0.01897372506810765</v>
-      </c>
-      <c r="E4">
-        <v>0.04642936165644001</v>
+      <c r="B4" t="n">
+        <v>0.06489317477177552</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04476146621255531</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01897372506810763</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04642936165644</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.002921082896125639</v>
-      </c>
-      <c r="C5">
-        <v>0.002318554095453844</v>
-      </c>
-      <c r="D5">
-        <v>0.002126183104736516</v>
-      </c>
-      <c r="E5">
+      <c r="B5" t="n">
+        <v>0.002921082896125643</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002318554095453845</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002126183104736512</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.008341546331496001</v>
       </c>
     </row>
@@ -755,16 +761,16 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0.0001957328600398222</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>0.0001957328600398224</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.417930516219509e-05</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>1.438458915650839e-05</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>7.790689498284e-06</v>
       </c>
     </row>
@@ -772,31 +778,37 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>17.53245207009414</v>
-      </c>
-      <c r="C7">
-        <v>46.31456391943023</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="n">
+        <v>17.53245207009418</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46.31456391943025</v>
+      </c>
+      <c r="D7" t="n">
         <v>17.31873691929337</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>13.141870163772</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -816,16 +828,16 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1.354388552146195</v>
       </c>
-      <c r="C2">
-        <v>5.833111048324261</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>5.833111048324263</v>
+      </c>
+      <c r="D2" t="n">
         <v>21.08118931138095</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1.9247222265</v>
       </c>
     </row>
@@ -833,16 +845,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.0002849646640695227</v>
-      </c>
-      <c r="C3">
-        <v>0.0007685583692880632</v>
-      </c>
-      <c r="D3">
-        <v>0.0003541347065878648</v>
-      </c>
-      <c r="E3">
+      <c r="B3" t="n">
+        <v>0.0002849646640695226</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0007685583692880634</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.000354134706587865</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0014825023101</v>
       </c>
     </row>
@@ -850,16 +862,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.02852270256639282</v>
       </c>
-      <c r="C4">
-        <v>0.03788208041008403</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>0.03788208041008404</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.0160576549323863</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.03929363715</v>
       </c>
     </row>
@@ -867,16 +879,16 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.001295658410898587</v>
       </c>
-      <c r="C5">
-        <v>0.001962215720593978</v>
-      </c>
-      <c r="D5">
-        <v>0.001799410210508223</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="n">
+        <v>0.001962215720593979</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.001799410210508224</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.007059534809999999</v>
       </c>
     </row>
@@ -884,16 +896,16 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>9.667382926142762e-05</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>9.667382926142758e-05</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.200008899982658e-05</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>1.21738229151222e-05</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>6.593339114999999e-06</v>
       </c>
     </row>
@@ -901,31 +913,37 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>7.716416073873441</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>39.1964826670872</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>14.65702176649744</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>11.122097295</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -945,16 +963,16 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>3.086743199183647</v>
-      </c>
-      <c r="C2">
-        <v>6.892404014699946</v>
-      </c>
-      <c r="D2">
-        <v>24.90953329032773</v>
-      </c>
-      <c r="E2">
+      <c r="B2" t="n">
+        <v>3.086743199183653</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.892404014699949</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.90953329032777</v>
+      </c>
+      <c r="E2" t="n">
         <v>2.2742517828324</v>
       </c>
     </row>
@@ -962,16 +980,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.0006420157123480455</v>
-      </c>
-      <c r="C3">
-        <v>0.0009081285691507752</v>
-      </c>
-      <c r="D3">
-        <v>0.000418445569304221</v>
-      </c>
-      <c r="E3">
+      <c r="B3" t="n">
+        <v>0.0006420157123480463</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0009081285691507756</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0004184455693042201</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.00175172472961416</v>
       </c>
     </row>
@@ -979,33 +997,33 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.06489317477177541</v>
-      </c>
-      <c r="C4">
-        <v>0.04476146621255528</v>
-      </c>
-      <c r="D4">
-        <v>0.01897372506810765</v>
-      </c>
-      <c r="E4">
-        <v>0.04642936165644001</v>
+      <c r="B4" t="n">
+        <v>0.06489317477177552</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04476146621255531</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01897372506810763</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04642936165644</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.002921082896125639</v>
-      </c>
-      <c r="C5">
-        <v>0.002318554095453844</v>
-      </c>
-      <c r="D5">
-        <v>0.002126183104736516</v>
-      </c>
-      <c r="E5">
+      <c r="B5" t="n">
+        <v>0.002921082896125643</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002318554095453845</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002126183104736512</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.008341546331496001</v>
       </c>
     </row>
@@ -1013,16 +1031,16 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0.0001957328600398222</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>0.0001957328600398224</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.417930516219509e-05</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>1.438458915650839e-05</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>7.790689498284e-06</v>
       </c>
     </row>
@@ -1030,20 +1048,20 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>17.53245207009414</v>
-      </c>
-      <c r="C7">
-        <v>46.31456391943023</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="n">
+        <v>17.53245207009418</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46.31456391943025</v>
+      </c>
+      <c r="D7" t="n">
         <v>17.31873691929337</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>13.141870163772</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/autoepd/tests/result.xlsx
+++ b/autoepd/tests/result.xlsx
@@ -7,11 +7,11 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="600×600抛光砖" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="800×800抛光砖" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="800×800干法原石" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="800×800湿法原石" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="900x900干法原石" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,16 +424,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4741122242282465</v>
+        <v>1.436059</v>
       </c>
       <c r="C2" t="n">
-        <v>5.773326546068668</v>
+        <v>6.427099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8651247791792</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>1.904995435883758</v>
+        <v>2.312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -441,16 +441,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>9.603722645811913e-05</v>
+        <v>0.00016415812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007606812897705291</v>
+        <v>0.0009586080000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003505051224792504</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001467307903210119</v>
+        <v>0.0017808</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -458,16 +458,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009813855066608939</v>
+        <v>0.02435705614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03749382081705366</v>
+        <v>0.03981920452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01589307741970541</v>
+        <v>0.001447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.038890910282748</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -475,16 +475,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0004366912225884634</v>
+        <v>0.000752424175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001942104653068954</v>
+        <v>0.00215860265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001780967763090777</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006987180491476759</v>
+        <v>0.00848</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -492,16 +492,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3.15348545739564e-05</v>
+        <v>3.45277e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.187709813921481e-05</v>
+        <v>1.5232e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>1.204905142740342e-05</v>
+        <v>4.1168e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>6.525762911850935e-06</v>
+        <v>7.919999999999999e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -509,16 +509,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2.702778663091556</v>
+        <v>8.499351965999999</v>
       </c>
       <c r="C7" t="n">
-        <v>38.79475155190557</v>
+        <v>60.72599679999999</v>
       </c>
       <c r="D7" t="n">
-        <v>14.50679957055431</v>
+        <v>50.24</v>
       </c>
       <c r="E7" t="n">
-        <v>11.00810511393037</v>
+        <v>13.36</v>
       </c>
     </row>
   </sheetData>
@@ -559,16 +559,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.465643297376405</v>
+        <v>1.436059</v>
       </c>
       <c r="C2" t="n">
-        <v>5.773326546068668</v>
+        <v>6.427099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8651247791792</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>1.904995435883758</v>
+        <v>2.312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -576,16 +576,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>9.489332810853404e-05</v>
+        <v>0.00016415812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007606812897705292</v>
+        <v>0.0009586080000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003505051224792504</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001467307903210119</v>
+        <v>0.0017808</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -593,16 +593,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009661260670135275</v>
+        <v>0.02435705614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03749382081705366</v>
+        <v>0.03981920452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01589307741970541</v>
+        <v>0.001447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.038890910282748</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -610,16 +610,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.000431452569064561</v>
+        <v>0.000752424175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001942104653068954</v>
+        <v>0.00215860265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001780967763090777</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006987180491476759</v>
+        <v>0.00848</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -627,16 +627,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3.087799647856728e-05</v>
+        <v>3.45277e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.187709813921481e-05</v>
+        <v>1.5232e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>1.204905142740342e-05</v>
+        <v>4.1168e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>6.525762911850935e-06</v>
+        <v>7.919999999999999e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -644,16 +644,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2.650044489076009</v>
+        <v>8.499351965999999</v>
       </c>
       <c r="C7" t="n">
-        <v>38.79475155190557</v>
+        <v>60.72599679999999</v>
       </c>
       <c r="D7" t="n">
-        <v>14.50679957055431</v>
+        <v>50.24</v>
       </c>
       <c r="E7" t="n">
-        <v>11.00810511393037</v>
+        <v>13.36</v>
       </c>
     </row>
   </sheetData>
@@ -694,16 +694,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3.086743199183653</v>
+        <v>1.436059</v>
       </c>
       <c r="C2" t="n">
-        <v>6.892404014699949</v>
+        <v>6.427099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>24.90953329032777</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>2.2742517828324</v>
+        <v>2.312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -711,16 +711,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0006420157123480463</v>
+        <v>0.00016415812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009081285691507756</v>
+        <v>0.0009586080000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004184455693042201</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00175172472961416</v>
+        <v>0.0017808</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -728,16 +728,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06489317477177552</v>
+        <v>0.02435705614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04476146621255531</v>
+        <v>0.03981920452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01897372506810763</v>
+        <v>0.001447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04642936165644</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -745,16 +745,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002921082896125643</v>
+        <v>0.000752424175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002318554095453845</v>
+        <v>0.00215860265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002126183104736512</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008341546331496001</v>
+        <v>0.00848</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -762,16 +762,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0001957328600398224</v>
+        <v>3.45277e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.417930516219509e-05</v>
+        <v>1.5232e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>1.438458915650839e-05</v>
+        <v>4.1168e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>7.790689498284e-06</v>
+        <v>7.919999999999999e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -779,16 +779,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>17.53245207009418</v>
+        <v>8.499351965999999</v>
       </c>
       <c r="C7" t="n">
-        <v>46.31456391943025</v>
+        <v>60.72599679999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.31873691929337</v>
+        <v>50.24</v>
       </c>
       <c r="E7" t="n">
-        <v>13.141870163772</v>
+        <v>13.36</v>
       </c>
     </row>
   </sheetData>
@@ -829,16 +829,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.354388552146195</v>
+        <v>1.436059</v>
       </c>
       <c r="C2" t="n">
-        <v>5.833111048324263</v>
+        <v>6.427099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>21.08118931138095</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9247222265</v>
+        <v>2.312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -846,16 +846,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0002849646640695226</v>
+        <v>0.00016415812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007685583692880634</v>
+        <v>0.0009586080000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000354134706587865</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0014825023101</v>
+        <v>0.0017808</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -863,16 +863,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02852270256639282</v>
+        <v>0.02435705614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03788208041008404</v>
+        <v>0.03981920452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0160576549323863</v>
+        <v>0.001447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03929363715</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -880,16 +880,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001295658410898587</v>
+        <v>0.000752424175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001962215720593979</v>
+        <v>0.00215860265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001799410210508224</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007059534809999999</v>
+        <v>0.00848</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -897,16 +897,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>9.667382926142758e-05</v>
+        <v>3.45277e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.200008899982658e-05</v>
+        <v>1.5232e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>1.21738229151222e-05</v>
+        <v>4.1168e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>6.593339114999999e-06</v>
+        <v>7.919999999999999e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -914,16 +914,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>7.716416073873441</v>
+        <v>8.499351965999999</v>
       </c>
       <c r="C7" t="n">
-        <v>39.1964826670872</v>
+        <v>60.72599679999999</v>
       </c>
       <c r="D7" t="n">
-        <v>14.65702176649744</v>
+        <v>50.24</v>
       </c>
       <c r="E7" t="n">
-        <v>11.122097295</v>
+        <v>13.36</v>
       </c>
     </row>
   </sheetData>
@@ -964,16 +964,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3.086743199183653</v>
+        <v>1.436059</v>
       </c>
       <c r="C2" t="n">
-        <v>6.892404014699949</v>
+        <v>6.427099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>24.90953329032777</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>2.2742517828324</v>
+        <v>2.312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -981,16 +981,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0006420157123480463</v>
+        <v>0.00016415812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009081285691507756</v>
+        <v>0.0009586080000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004184455693042201</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00175172472961416</v>
+        <v>0.0017808</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -998,16 +998,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06489317477177552</v>
+        <v>0.02435705614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04476146621255531</v>
+        <v>0.03981920452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01897372506810763</v>
+        <v>0.001447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04642936165644</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1015,16 +1015,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002921082896125643</v>
+        <v>0.000752424175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002318554095453845</v>
+        <v>0.00215860265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002126183104736512</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008341546331496001</v>
+        <v>0.00848</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1032,16 +1032,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0001957328600398224</v>
+        <v>3.45277e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.417930516219509e-05</v>
+        <v>1.5232e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>1.438458915650839e-05</v>
+        <v>4.1168e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>7.790689498284e-06</v>
+        <v>7.919999999999999e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1049,16 +1049,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>17.53245207009418</v>
+        <v>8.499351965999999</v>
       </c>
       <c r="C7" t="n">
-        <v>46.31456391943025</v>
+        <v>60.72599679999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.31873691929337</v>
+        <v>50.24</v>
       </c>
       <c r="E7" t="n">
-        <v>13.141870163772</v>
+        <v>13.36</v>
       </c>
     </row>
   </sheetData>
